--- a/data/case1/14/Qlm1_14.xlsx
+++ b/data/case1/14/Qlm1_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.18090154911376288</v>
+        <v>-0.21729837854633161</v>
       </c>
       <c r="B1" s="0">
-        <v>0.18080132700504947</v>
+        <v>0.21715215758334239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.12881334679040357</v>
+        <v>-0.13853351630225053</v>
       </c>
       <c r="B2" s="0">
-        <v>0.12853908275601267</v>
+        <v>0.13821373841016005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.078838227073125822</v>
+        <v>-0.088513061909686996</v>
       </c>
       <c r="B3" s="0">
-        <v>0.078557506856020254</v>
+        <v>0.088198351843887579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.070557506899202593</v>
+        <v>-0.080198351906064502</v>
       </c>
       <c r="B4" s="0">
-        <v>0.070226927880636225</v>
+        <v>0.079867768381042481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.067226927903525358</v>
+        <v>-0.076867768415365134</v>
       </c>
       <c r="B5" s="0">
-        <v>0.066116499609677248</v>
+        <v>0.075756255420880159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.015269354651236355</v>
+        <v>-0.0035608320954096939</v>
       </c>
       <c r="B6" s="0">
-        <v>0.015006014087479258</v>
+        <v>0.0034955014142390439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.051737941079697425</v>
+        <v>0.0065044984977862264</v>
       </c>
       <c r="B7" s="0">
-        <v>0.051558336609144995</v>
+        <v>-0.0065111306408738301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.041558336671478902</v>
+        <v>0.01651113055318465</v>
       </c>
       <c r="B8" s="0">
-        <v>0.041201723892971831</v>
+        <v>-0.016523983919472851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.011548458712520748</v>
+        <v>-0.038715522649068745</v>
       </c>
       <c r="B9" s="0">
-        <v>0.011439776374667865</v>
+        <v>0.0385753608146997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0094397764062730261</v>
+        <v>-0.036575360856597072</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0094336159172829781</v>
+        <v>0.036566926066562644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024388188797477284</v>
+        <v>-0.033566926115027762</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024362041841784254</v>
+        <v>0.03355254834084942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020862041880786997</v>
+        <v>-0.030052548393217027</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020669461800820077</v>
+        <v>0.029950536357071122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017169461842487799</v>
+        <v>-0.017164167583041845</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081708339213186</v>
+        <v>0.017079089337326714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090817084017338345</v>
+        <v>-0.0090790894243033549</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090530059455931067</v>
+        <v>0.009051366959320184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080530059774117646</v>
+        <v>-0.0080513670035058382</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080344690419877907</v>
+        <v>0.0080334642346979734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060344690787492716</v>
+        <v>-0.006033464285689405</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035260758284359</v>
+        <v>0.0060033594696080606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040035261132898015</v>
+        <v>-0.0040033595215875906</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999534350295</v>
+        <v>0.0039999999353890203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.04598798024236217</v>
+        <v>-0.072618641319497357</v>
       </c>
       <c r="B18" s="0">
-        <v>0.045918712427678088</v>
+        <v>0.072492798748438503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.041918712446946671</v>
+        <v>-0.068492798775567909</v>
       </c>
       <c r="B19" s="0">
-        <v>0.041431332417160238</v>
+        <v>0.067550921736479363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.037431332441153486</v>
+        <v>-0.008016965842722712</v>
       </c>
       <c r="B20" s="0">
-        <v>0.037301547833045845</v>
+        <v>0.0080057589827813302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057584494004317</v>
+        <v>-0.004005759024662936</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999747024617</v>
+        <v>0.0039999999578590462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045700855706218846</v>
+        <v>-0.045700676534343287</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490841215841016</v>
+        <v>0.045490824603374946</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490841245054199</v>
+        <v>-0.040490824645186052</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097419103216403</v>
+        <v>0.040097358410300821</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.02009741920174779</v>
+        <v>-0.020097358549171496</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999900170984</v>
+        <v>0.019999999859209971</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04884714498203202</v>
+        <v>-0.070195423363598408</v>
       </c>
       <c r="B25" s="0">
-        <v>0.048812145878526891</v>
+        <v>0.070110626207229743</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.046312145904403579</v>
+        <v>-0.06761062624994274</v>
       </c>
       <c r="B26" s="0">
-        <v>0.046270293830955822</v>
+        <v>0.067503296026490744</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.043770293857737119</v>
+        <v>-0.065003296071147521</v>
       </c>
       <c r="B27" s="0">
-        <v>0.04354044453460526</v>
+        <v>0.064379930344526493</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.041540444562918388</v>
+        <v>-0.062379930395991323</v>
       </c>
       <c r="B28" s="0">
-        <v>0.041398053675158586</v>
+        <v>0.061965362732957274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081343004918342565</v>
+        <v>-0.054965362822138708</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081164561215166131</v>
+        <v>0.054854100186421562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021164561507147184</v>
+        <v>0.0051458993925415086</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022698611496082</v>
+        <v>-0.0052439431615844967</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01402269866939676</v>
+        <v>0.012243943069389474</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001347684114762</v>
+        <v>-0.01225986554154268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040013477556861687</v>
+        <v>-0.0040009905243216792</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999550293097</v>
+        <v>0.0039999999265916131</v>
       </c>
     </row>
   </sheetData>
